--- a/app/database/312000BE/Level B1, Pacific Building, 180 Campbell Parade, Bondi Beach Back Up.xlsx
+++ b/app/database/312000BE/Level B1, Pacific Building, 180 Campbell Parade, Bondi Beach Back Up.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\database\312000BE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\00-Bridge Database\312000BE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C71E9D8-1DA5-4E8C-85F0-8D42AC72DDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25119B20-16EA-4D01-AD28-ECB4ED415D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27075" yWindow="3120" windowWidth="27075" windowHeight="11775" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="52500" yWindow="6465" windowWidth="16200" windowHeight="11310" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee Proposal" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="211">
   <si>
     <t>Premium Consulting Engineers</t>
   </si>
@@ -3030,7 +3030,12 @@
       <c r="I115" s="20"/>
     </row>
     <row r="116" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
+      <c r="A116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
+        <v>191</v>
+      </c>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
@@ -3040,12 +3045,7 @@
       <c r="I116" s="20"/>
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="18">
-        <v>2.9</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="A117" s="1"/>
       <c r="C117" s="20"/>
       <c r="D117" s="20"/>
       <c r="E117" s="20"/>
@@ -3055,11 +3055,11 @@
       <c r="I117" s="20"/>
     </row>
     <row r="118" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B118" t="s">
-        <v>196</v>
+      <c r="A118" s="18">
+        <v>2.9</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
@@ -3089,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
@@ -3100,7 +3100,12 @@
       <c r="I120" s="20"/>
     </row>
     <row r="121" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
+      <c r="A121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>184</v>
+      </c>
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
       <c r="E121" s="20"/>
